--- a/medicine/Enfance/En_famille_(roman)/En_famille_(roman).xlsx
+++ b/medicine/Enfance/En_famille_(roman)/En_famille_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En famille est un roman français d'Hector Malot publié à Paris, chez Ernest Flammarion, en 1893[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En famille est un roman français d'Hector Malot publié à Paris, chez Ernest Flammarion, en 1893.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce roman a initialement paru en feuilleton dans le Petit Journal du 13 aout 1893[2], au 11 octobre 1893[3]. Paru, la même année, en format volume grand in-8º jésus illustré[4], ce roman, est publié avec grand succès en 1878[5], et reçoit un excellent accueil critique[6], et 35 000 exemplaires s’en vendront entre 1894 et 1911[7].
-Sollicité de toutes parts de donner un pendant à Sans famille[a], Malot a donné à son roman un titre qui fait écho à celui à son roman de 1878[b]. La continuité avec Sans famille est établie par prolonge et aboutit la réflexion sociale amorcée dans Sans Famille[8]. Malot établit la continuité avec En famille en prolongeant et aboutissant la réflexion sociale amorcée dans Sans Famille[8].
-Si la réception a été enthousiaste à l’époque de la parution[5], la critique universitaire actuelle d’inspiration bourdieusienne a relevé, derrière le discours volontariste de Malot[9], et le message social optimiste[8], le discours sexiste du système de règles sociales exigeant passivité et silence chez les personnages féminins face à un comportement actif et éloquent chez les personnages masculins à l’œuvre dans le texte[10].
-Le travail d’illustration des nombreuses vignettes dans le texte et hors texte gravées sur bois d’après les dessins d’Henri Lanos a également été salué, à sa sortie[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce roman a initialement paru en feuilleton dans le Petit Journal du 13 aout 1893, au 11 octobre 1893. Paru, la même année, en format volume grand in-8º jésus illustré, ce roman, est publié avec grand succès en 1878, et reçoit un excellent accueil critique, et 35 000 exemplaires s’en vendront entre 1894 et 1911.
+Sollicité de toutes parts de donner un pendant à Sans famille[a], Malot a donné à son roman un titre qui fait écho à celui à son roman de 1878[b]. La continuité avec Sans famille est établie par prolonge et aboutit la réflexion sociale amorcée dans Sans Famille. Malot établit la continuité avec En famille en prolongeant et aboutissant la réflexion sociale amorcée dans Sans Famille.
+Si la réception a été enthousiaste à l’époque de la parution, la critique universitaire actuelle d’inspiration bourdieusienne a relevé, derrière le discours volontariste de Malot, et le message social optimiste, le discours sexiste du système de règles sociales exigeant passivité et silence chez les personnages féminins face à un comportement actif et éloquent chez les personnages masculins à l’œuvre dans le texte.
+Le travail d’illustration des nombreuses vignettes dans le texte et hors texte gravées sur bois d’après les dessins d’Henri Lanos a également été salué, à sa sortie.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Thématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dernier roman pour la jeunesse qu’il ait fait publier du vivant de Malot[9], En famille est le cinquantième ouvrage d’un auteur, qui a milité pour les droits des enfants naturels et dénoncé, dans son œuvre, les conditions de travail, particulièrement celles des enfants[11], ou l’inégalité devant la maladie[12]. Dans la lignée des récits d’enfants à la recherche de leurs origines, ce roman familial et social se penche également sur la question sociale qui préoccupait beaucoup d’écrivains de l’époque[13].
-Ce roman d’initiation narre le destin d’une jeune orpheline d’une douzaine d’années[9], Perrine[c], et retrace la vie et l’évolution d’un grand complexe industriel de la fin du XIXe siècle[15], calqué sur les usines Saint Frères à Flixecourt dans la Somme[16][d].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dernier roman pour la jeunesse qu’il ait fait publier du vivant de Malot, En famille est le cinquantième ouvrage d’un auteur, qui a milité pour les droits des enfants naturels et dénoncé, dans son œuvre, les conditions de travail, particulièrement celles des enfants, ou l’inégalité devant la maladie. Dans la lignée des récits d’enfants à la recherche de leurs origines, ce roman familial et social se penche également sur la question sociale qui préoccupait beaucoup d’écrivains de l’époque.
+Ce roman d’initiation narre le destin d’une jeune orpheline d’une douzaine d’années, Perrine[c], et retrace la vie et l’évolution d’un grand complexe industriel de la fin du XIXe siècle, calqué sur les usines Saint Frères à Flixecourt dans la Somme[d].
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fin du XIXe siècle, la jeune Perrine a entamé, avec ses parents, un voyage de l’Inde vers la France pour tenter d’atteindre Maraucourt, où réside le riche grand-père Vulfran Paindavoine, qui a rompu toute relation avec son fils Edmond du jour où celui-ci a épousé la future mère de Perrine, l’Anglo-Indienne Marie Doressany.
 Le roman commence avec l’arrivée, après la mort d’Edmond, de Marie et de Perrine à Paris, épuisées et sans argent. Très rapidement, Marie, exténuée par le voyage, est à l’article de la mort. Avant de mourir, elle révèle à Perrine que le vieux Vulfran aurait certainement recueilli son fils Edmond, mais qu’il aurait sans doute rejeté sa belle-fille et sa petite-fille car le vieil homme, qui a toujours été contre le mariage de ses parents, a toujours refusé d’avoir des relations avec la jeune Perrine.
@@ -612,9 +630,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En famille a reçu le prix Montyon de l’Académie française, en 1894[17].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En famille a reçu le prix Montyon de l’Académie française, en 1894.</t>
         </is>
       </c>
     </row>
@@ -642,7 +662,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En famille a été adapté en série d’animation japonaise dans le cadre du World Masterpiece Theater, sous le nom de Perrine monogatari.
 </t>
